--- a/natmiOut/OldD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5494732198793</v>
+        <v>14.93377333333333</v>
       </c>
       <c r="H2">
-        <v>13.5494732198793</v>
+        <v>44.80132</v>
       </c>
       <c r="I2">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="J2">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N2">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O2">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P2">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q2">
-        <v>6.499530511185808</v>
+        <v>8.566783962288889</v>
       </c>
       <c r="R2">
-        <v>6.499530511185808</v>
+        <v>77.1010556606</v>
       </c>
       <c r="S2">
-        <v>0.0005686283812408231</v>
+        <v>0.000640178072049491</v>
       </c>
       <c r="T2">
-        <v>0.0005686283812408231</v>
+        <v>0.0006401780720494909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5494732198793</v>
+        <v>14.93377333333333</v>
       </c>
       <c r="H3">
-        <v>13.5494732198793</v>
+        <v>44.80132</v>
       </c>
       <c r="I3">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="J3">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N3">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O3">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P3">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q3">
-        <v>52.81625365857917</v>
+        <v>58.66339100176444</v>
       </c>
       <c r="R3">
-        <v>52.81625365857917</v>
+        <v>527.97051901588</v>
       </c>
       <c r="S3">
-        <v>0.004620767726129688</v>
+        <v>0.004383794048818408</v>
       </c>
       <c r="T3">
-        <v>0.004620767726129688</v>
+        <v>0.004383794048818408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5494732198793</v>
+        <v>14.93377333333333</v>
       </c>
       <c r="H4">
-        <v>13.5494732198793</v>
+        <v>44.80132</v>
       </c>
       <c r="I4">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="J4">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N4">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O4">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P4">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q4">
-        <v>2504.953046749716</v>
+        <v>3067.156016542991</v>
       </c>
       <c r="R4">
-        <v>2504.953046749716</v>
+        <v>27604.40414888692</v>
       </c>
       <c r="S4">
-        <v>0.2191523516361933</v>
+        <v>0.2292022343494314</v>
       </c>
       <c r="T4">
-        <v>0.2191523516361933</v>
+        <v>0.2292022343494314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.5494732198793</v>
+        <v>14.93377333333333</v>
       </c>
       <c r="H5">
-        <v>13.5494732198793</v>
+        <v>44.80132</v>
       </c>
       <c r="I5">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="J5">
-        <v>0.2267338135140265</v>
+        <v>0.2388991565396538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N5">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O5">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P5">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q5">
-        <v>27.34176656107078</v>
+        <v>62.53284118676889</v>
       </c>
       <c r="R5">
-        <v>27.34176656107078</v>
+        <v>562.79557068092</v>
       </c>
       <c r="S5">
-        <v>0.002392065770462798</v>
+        <v>0.00467295006935448</v>
       </c>
       <c r="T5">
-        <v>0.002392065770462798</v>
+        <v>0.004672950069354479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.3517310597564</v>
+        <v>38.73630666666667</v>
       </c>
       <c r="H6">
-        <v>38.3517310597564</v>
+        <v>116.20892</v>
       </c>
       <c r="I6">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="J6">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N6">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O6">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P6">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q6">
-        <v>18.39689574159694</v>
+        <v>22.22114687984445</v>
       </c>
       <c r="R6">
-        <v>18.39689574159694</v>
+        <v>199.9903219186</v>
       </c>
       <c r="S6">
-        <v>0.001609500413514006</v>
+        <v>0.00166054041176808</v>
       </c>
       <c r="T6">
-        <v>0.001609500413514006</v>
+        <v>0.00166054041176808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.3517310597564</v>
+        <v>38.73630666666667</v>
       </c>
       <c r="H7">
-        <v>38.3517310597564</v>
+        <v>116.20892</v>
       </c>
       <c r="I7">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="J7">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N7">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O7">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P7">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q7">
-        <v>149.4961998172611</v>
+        <v>152.1653672671422</v>
       </c>
       <c r="R7">
-        <v>149.4961998172611</v>
+        <v>1369.48830540428</v>
       </c>
       <c r="S7">
-        <v>0.01307906501207185</v>
+        <v>0.01137100362033115</v>
       </c>
       <c r="T7">
-        <v>0.01307906501207185</v>
+        <v>0.01137100362033115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.3517310597564</v>
+        <v>38.73630666666667</v>
       </c>
       <c r="H8">
-        <v>38.3517310597564</v>
+        <v>116.20892</v>
       </c>
       <c r="I8">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="J8">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N8">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O8">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P8">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q8">
-        <v>7090.259820973197</v>
+        <v>7955.812198255838</v>
       </c>
       <c r="R8">
-        <v>7090.259820973197</v>
+        <v>71602.30978430253</v>
       </c>
       <c r="S8">
-        <v>0.6203098758653675</v>
+        <v>0.5945214139970504</v>
       </c>
       <c r="T8">
-        <v>0.6203098758653675</v>
+        <v>0.5945214139970503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.3517310597564</v>
+        <v>38.73630666666667</v>
       </c>
       <c r="H9">
-        <v>38.3517310597564</v>
+        <v>116.20892</v>
       </c>
       <c r="I9">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="J9">
-        <v>0.6417691741170414</v>
+        <v>0.6196739955515621</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N9">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O9">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P9">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q9">
-        <v>77.39076352506112</v>
+        <v>162.2022283907245</v>
       </c>
       <c r="R9">
-        <v>77.39076352506112</v>
+        <v>1459.82005551652</v>
       </c>
       <c r="S9">
-        <v>0.006770732826088087</v>
+        <v>0.01212103752241249</v>
       </c>
       <c r="T9">
-        <v>0.006770732826088087</v>
+        <v>0.01212103752241249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36024532765494</v>
+        <v>1.647417666666667</v>
       </c>
       <c r="H10">
-        <v>1.36024532765494</v>
+        <v>4.942253</v>
       </c>
       <c r="I10">
-        <v>0.02276203697730091</v>
+        <v>0.0263541358403184</v>
       </c>
       <c r="J10">
-        <v>0.02276203697730091</v>
+        <v>0.02635413584031841</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N10">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O10">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P10">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q10">
-        <v>0.6524944450844101</v>
+        <v>0.9450438901794445</v>
       </c>
       <c r="R10">
-        <v>0.6524944450844101</v>
+        <v>8.505395011615001</v>
       </c>
       <c r="S10">
-        <v>5.708517860458282E-05</v>
+        <v>7.062117806173596E-05</v>
       </c>
       <c r="T10">
-        <v>5.708517860458282E-05</v>
+        <v>7.062117806173596E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.36024532765494</v>
+        <v>1.647417666666667</v>
       </c>
       <c r="H11">
-        <v>1.36024532765494</v>
+        <v>4.942253</v>
       </c>
       <c r="I11">
-        <v>0.02276203697730091</v>
+        <v>0.0263541358403184</v>
       </c>
       <c r="J11">
-        <v>0.02276203697730091</v>
+        <v>0.02635413584031841</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N11">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O11">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P11">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q11">
-        <v>5.302277151108346</v>
+        <v>6.471445934375222</v>
       </c>
       <c r="R11">
-        <v>5.302277151108346</v>
+        <v>58.243013409377</v>
       </c>
       <c r="S11">
-        <v>0.0004638835479171964</v>
+        <v>0.0004835977888409297</v>
       </c>
       <c r="T11">
-        <v>0.0004638835479171964</v>
+        <v>0.0004835977888409298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.36024532765494</v>
+        <v>1.647417666666667</v>
       </c>
       <c r="H12">
-        <v>1.36024532765494</v>
+        <v>4.942253</v>
       </c>
       <c r="I12">
-        <v>0.02276203697730091</v>
+        <v>0.0263541358403184</v>
       </c>
       <c r="J12">
-        <v>0.02276203697730091</v>
+        <v>0.02635413584031841</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N12">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O12">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P12">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q12">
-        <v>251.4747711990135</v>
+        <v>338.3529999613326</v>
       </c>
       <c r="R12">
-        <v>251.4747711990135</v>
+        <v>3045.176999651993</v>
       </c>
       <c r="S12">
-        <v>0.02200092634748053</v>
+        <v>0.0252844208679606</v>
       </c>
       <c r="T12">
-        <v>0.02200092634748053</v>
+        <v>0.0252844208679606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.36024532765494</v>
+        <v>1.647417666666667</v>
       </c>
       <c r="H13">
-        <v>1.36024532765494</v>
+        <v>4.942253</v>
       </c>
       <c r="I13">
-        <v>0.02276203697730091</v>
+        <v>0.0263541358403184</v>
       </c>
       <c r="J13">
-        <v>0.02276203697730091</v>
+        <v>0.02635413584031841</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N13">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O13">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P13">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q13">
-        <v>2.744867613005247</v>
+        <v>6.898303932871445</v>
       </c>
       <c r="R13">
-        <v>2.744867613005247</v>
+        <v>62.084735395843</v>
       </c>
       <c r="S13">
-        <v>0.0002401419032986081</v>
+        <v>0.0005154960054551381</v>
       </c>
       <c r="T13">
-        <v>0.0002401419032986081</v>
+        <v>0.000515496005455138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.49793524088544</v>
+        <v>7.193285333333333</v>
       </c>
       <c r="H14">
-        <v>6.49793524088544</v>
+        <v>21.579856</v>
       </c>
       <c r="I14">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="J14">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N14">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O14">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P14">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q14">
-        <v>3.116986739815162</v>
+        <v>4.126440120275555</v>
       </c>
       <c r="R14">
-        <v>3.116986739815162</v>
+        <v>37.13796108248</v>
       </c>
       <c r="S14">
-        <v>0.0002726977158057589</v>
+        <v>0.0003083603476233655</v>
       </c>
       <c r="T14">
-        <v>0.0002726977158057589</v>
+        <v>0.0003083603476233655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.49793524088544</v>
+        <v>7.193285333333333</v>
       </c>
       <c r="H15">
-        <v>6.49793524088544</v>
+        <v>21.579856</v>
       </c>
       <c r="I15">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="J15">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N15">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O15">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P15">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q15">
-        <v>25.32914677716772</v>
+        <v>28.25692480243377</v>
       </c>
       <c r="R15">
-        <v>25.32914677716772</v>
+        <v>254.312323221904</v>
       </c>
       <c r="S15">
-        <v>0.002215986478611723</v>
+        <v>0.002111581629897472</v>
       </c>
       <c r="T15">
-        <v>0.002215986478611723</v>
+        <v>0.002111581629897472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.49793524088544</v>
+        <v>7.193285333333333</v>
       </c>
       <c r="H16">
-        <v>6.49793524088544</v>
+        <v>21.579856</v>
       </c>
       <c r="I16">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="J16">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N16">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O16">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P16">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q16">
-        <v>1201.302989060657</v>
+        <v>1477.384710239148</v>
       </c>
       <c r="R16">
-        <v>1201.302989060657</v>
+        <v>13296.46239215234</v>
       </c>
       <c r="S16">
-        <v>0.1050991256789556</v>
+        <v>0.1104019080718823</v>
       </c>
       <c r="T16">
-        <v>0.1050991256789556</v>
+        <v>0.1104019080718823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.49793524088544</v>
+        <v>7.193285333333333</v>
       </c>
       <c r="H17">
-        <v>6.49793524088544</v>
+        <v>21.579856</v>
       </c>
       <c r="I17">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="J17">
-        <v>0.1087349753916311</v>
+        <v>0.1150727120684656</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N17">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O17">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P17">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q17">
-        <v>13.11231998485234</v>
+        <v>30.12075778305956</v>
       </c>
       <c r="R17">
-        <v>13.11231998485234</v>
+        <v>271.086820047536</v>
       </c>
       <c r="S17">
-        <v>0.00114716551825802</v>
+        <v>0.002250862019062378</v>
       </c>
       <c r="T17">
-        <v>0.00114716551825802</v>
+        <v>0.002250862019062378</v>
       </c>
     </row>
   </sheetData>
